--- a/src/2016山东省.xlsx
+++ b/src/2016山东省.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="0" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="0" rupBuild="20228"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Desktop\work\Project\fuckcqcs\src\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:8100000_{1BF2DFD0-97DD-4E0B-8B36-CDAAE00CBF62}" xr6:coauthVersionLast="34" xr6:coauthVersionMax="34" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="10515"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15600" windowHeight="10515" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="2" r:id="rId1"/>
@@ -423,18 +424,18 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5">
     <font>
       <sz val="9"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="9"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -442,7 +443,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -451,14 +452,14 @@
       <b/>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="12"/>
       <color theme="1"/>
-      <name val="宋体"/>
+      <name val="Calibri"/>
       <family val="3"/>
       <charset val="134"/>
       <scheme val="minor"/>
@@ -537,7 +538,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 主题​​">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -612,6 +613,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -647,6 +665,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -822,7 +857,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G126"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -830,7 +865,7 @@
       <selection pane="bottomLeft" activeCell="O5" sqref="O5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.15"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="42.6640625" style="5" customWidth="1"/>
     <col min="2" max="2" width="11.83203125" style="6" customWidth="1"/>
@@ -841,7 +876,7 @@
     <col min="8" max="16384" width="9.33203125" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="1" spans="1:7" s="2" customFormat="1" ht="24.75" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -864,7 +899,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="2" spans="1:7" ht="25.5" customHeight="1">
       <c r="A2" s="3" t="s">
         <v>77</v>
       </c>
@@ -887,7 +922,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="3" spans="1:7" ht="25.5" customHeight="1">
       <c r="A3" s="3" t="s">
         <v>41</v>
       </c>
@@ -910,7 +945,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="4" spans="1:7" ht="25.5" customHeight="1">
       <c r="A4" s="3" t="s">
         <v>41</v>
       </c>
@@ -933,7 +968,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="5" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="5" spans="1:7" ht="25.5" customHeight="1">
       <c r="A5" s="3" t="s">
         <v>41</v>
       </c>
@@ -956,7 +991,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="6" spans="1:7" ht="25.5" customHeight="1">
       <c r="A6" s="3" t="s">
         <v>43</v>
       </c>
@@ -979,7 +1014,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="7" spans="1:7" ht="25.5" customHeight="1">
       <c r="A7" s="3" t="s">
         <v>43</v>
       </c>
@@ -1002,7 +1037,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="8" spans="1:7" ht="25.5" customHeight="1">
       <c r="A8" s="3" t="s">
         <v>43</v>
       </c>
@@ -1025,7 +1060,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="9" spans="1:7" ht="25.5" customHeight="1">
       <c r="A9" s="3" t="s">
         <v>43</v>
       </c>
@@ -1048,7 +1083,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="10" spans="1:7" ht="25.5" customHeight="1">
       <c r="A10" s="3" t="s">
         <v>127</v>
       </c>
@@ -1071,7 +1106,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="11" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="11" spans="1:7" ht="25.5" customHeight="1">
       <c r="A11" s="3" t="s">
         <v>127</v>
       </c>
@@ -1094,7 +1129,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="12" spans="1:7" ht="25.5" customHeight="1">
       <c r="A12" s="3" t="s">
         <v>127</v>
       </c>
@@ -1117,7 +1152,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="13" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="13" spans="1:7" ht="25.5" customHeight="1">
       <c r="A13" s="3" t="s">
         <v>127</v>
       </c>
@@ -1140,7 +1175,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="14" spans="1:7" ht="25.5" customHeight="1">
       <c r="A14" s="3" t="s">
         <v>127</v>
       </c>
@@ -1163,7 +1198,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="15" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="15" spans="1:7" ht="25.5" customHeight="1">
       <c r="A15" s="3" t="s">
         <v>127</v>
       </c>
@@ -1186,7 +1221,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="16" spans="1:7" ht="108" x14ac:dyDescent="0.15">
+    <row r="16" spans="1:7" ht="135">
       <c r="A16" s="3" t="s">
         <v>97</v>
       </c>
@@ -1209,7 +1244,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="17" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="17" spans="1:7" ht="45">
       <c r="A17" s="3" t="s">
         <v>122</v>
       </c>
@@ -1232,7 +1267,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="18" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="18" spans="1:7" ht="45">
       <c r="A18" s="3" t="s">
         <v>122</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="19" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="19" spans="1:7" ht="25.5" customHeight="1">
       <c r="A19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1278,7 +1313,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="20" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="20" spans="1:7" ht="25.5" customHeight="1">
       <c r="A20" s="3" t="s">
         <v>109</v>
       </c>
@@ -1301,7 +1336,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="21" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="21" spans="1:7" ht="25.5" customHeight="1">
       <c r="A21" s="3" t="s">
         <v>82</v>
       </c>
@@ -1324,7 +1359,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="22" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="22" spans="1:7" ht="25.5" customHeight="1">
       <c r="A22" s="3" t="s">
         <v>66</v>
       </c>
@@ -1347,7 +1382,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="23" spans="1:7" ht="25.5" customHeight="1">
       <c r="A23" s="3" t="s">
         <v>66</v>
       </c>
@@ -1370,7 +1405,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="24" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="24" spans="1:7" ht="25.5" customHeight="1">
       <c r="A24" s="3" t="s">
         <v>92</v>
       </c>
@@ -1393,7 +1428,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="25" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="25" spans="1:7" ht="25.5" customHeight="1">
       <c r="A25" s="3" t="s">
         <v>92</v>
       </c>
@@ -1416,7 +1451,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="26" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="26" spans="1:7" ht="25.5" customHeight="1">
       <c r="A26" s="3" t="s">
         <v>53</v>
       </c>
@@ -1439,7 +1474,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="27" spans="1:7" ht="25.5" customHeight="1">
       <c r="A27" s="3" t="s">
         <v>53</v>
       </c>
@@ -1462,7 +1497,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="28" spans="1:7" ht="25.5" customHeight="1">
       <c r="A28" s="3" t="s">
         <v>53</v>
       </c>
@@ -1485,7 +1520,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="29" spans="1:7" ht="25.5" customHeight="1">
       <c r="A29" s="3" t="s">
         <v>7</v>
       </c>
@@ -1508,7 +1543,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="30" spans="1:7" ht="25.5" customHeight="1">
       <c r="A30" s="3" t="s">
         <v>94</v>
       </c>
@@ -1531,7 +1566,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="31" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="31" spans="1:7" ht="25.5" customHeight="1">
       <c r="A31" s="3" t="s">
         <v>94</v>
       </c>
@@ -1554,7 +1589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="32" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="32" spans="1:7" ht="25.5" customHeight="1">
       <c r="A32" s="3" t="s">
         <v>94</v>
       </c>
@@ -1577,7 +1612,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="33" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="33" spans="1:7" ht="25.5" customHeight="1">
       <c r="A33" s="3" t="s">
         <v>94</v>
       </c>
@@ -1600,7 +1635,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="34" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="34" spans="1:7" ht="25.5" customHeight="1">
       <c r="A34" s="3" t="s">
         <v>94</v>
       </c>
@@ -1623,7 +1658,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="35" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="35" spans="1:7" ht="25.5" customHeight="1">
       <c r="A35" s="3" t="s">
         <v>94</v>
       </c>
@@ -1646,7 +1681,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="36" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="36" spans="1:7" ht="25.5" customHeight="1">
       <c r="A36" s="3" t="s">
         <v>32</v>
       </c>
@@ -1669,7 +1704,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="37" spans="1:7" ht="25.5" customHeight="1">
       <c r="A37" s="3" t="s">
         <v>81</v>
       </c>
@@ -1692,7 +1727,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="38" spans="1:7" ht="25.5" customHeight="1">
       <c r="A38" s="3" t="s">
         <v>81</v>
       </c>
@@ -1715,7 +1750,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="39" spans="1:7" ht="25.5" customHeight="1">
       <c r="A39" s="3" t="s">
         <v>81</v>
       </c>
@@ -1738,7 +1773,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="40" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="40" spans="1:7" ht="25.5" customHeight="1">
       <c r="A40" s="3" t="s">
         <v>81</v>
       </c>
@@ -1761,7 +1796,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="41" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="41" spans="1:7" ht="25.5" customHeight="1">
       <c r="A41" s="3" t="s">
         <v>21</v>
       </c>
@@ -1784,7 +1819,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="42" spans="1:7" ht="25.5" customHeight="1">
       <c r="A42" s="3" t="s">
         <v>21</v>
       </c>
@@ -1807,7 +1842,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="43" spans="1:7" ht="25.5" customHeight="1">
       <c r="A43" s="3" t="s">
         <v>21</v>
       </c>
@@ -1830,7 +1865,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="44" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="44" spans="1:7" ht="25.5" customHeight="1">
       <c r="A44" s="3" t="s">
         <v>21</v>
       </c>
@@ -1853,7 +1888,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="45" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="45" spans="1:7" ht="25.5" customHeight="1">
       <c r="A45" s="3" t="s">
         <v>21</v>
       </c>
@@ -1876,7 +1911,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="46" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="46" spans="1:7" ht="25.5" customHeight="1">
       <c r="A46" s="3" t="s">
         <v>21</v>
       </c>
@@ -1899,7 +1934,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="47" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="47" spans="1:7" ht="25.5" customHeight="1">
       <c r="A47" s="3" t="s">
         <v>21</v>
       </c>
@@ -1922,7 +1957,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="48" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="48" spans="1:7" ht="25.5" customHeight="1">
       <c r="A48" s="3" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1980,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="49" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="49" spans="1:7" ht="25.5" customHeight="1">
       <c r="A49" s="3" t="s">
         <v>21</v>
       </c>
@@ -1968,7 +2003,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="50" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="50" spans="1:7" ht="25.5" customHeight="1">
       <c r="A50" s="3" t="s">
         <v>72</v>
       </c>
@@ -1991,7 +2026,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="51" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="51" spans="1:7" ht="25.5" customHeight="1">
       <c r="A51" s="3" t="s">
         <v>72</v>
       </c>
@@ -2014,7 +2049,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="52" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="52" spans="1:7" ht="25.5" customHeight="1">
       <c r="A52" s="3" t="s">
         <v>72</v>
       </c>
@@ -2037,7 +2072,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="53" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="53" spans="1:7" ht="25.5" customHeight="1">
       <c r="A53" s="3" t="s">
         <v>72</v>
       </c>
@@ -2060,7 +2095,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="54" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="54" spans="1:7" ht="25.5" customHeight="1">
       <c r="A54" s="3" t="s">
         <v>72</v>
       </c>
@@ -2083,7 +2118,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="55" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="55" spans="1:7" ht="25.5" customHeight="1">
       <c r="A55" s="3" t="s">
         <v>72</v>
       </c>
@@ -2106,7 +2141,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="56" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="56" spans="1:7" ht="25.5" customHeight="1">
       <c r="A56" s="3" t="s">
         <v>72</v>
       </c>
@@ -2129,7 +2164,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="57" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="57" spans="1:7" ht="25.5" customHeight="1">
       <c r="A57" s="3" t="s">
         <v>72</v>
       </c>
@@ -2152,7 +2187,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="58" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="58" spans="1:7" ht="25.5" customHeight="1">
       <c r="A58" s="3" t="s">
         <v>91</v>
       </c>
@@ -2175,7 +2210,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="59" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="59" spans="1:7" ht="25.5" customHeight="1">
       <c r="A59" s="3" t="s">
         <v>91</v>
       </c>
@@ -2198,7 +2233,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="60" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="60" spans="1:7" ht="25.5" customHeight="1">
       <c r="A60" s="3" t="s">
         <v>50</v>
       </c>
@@ -2221,7 +2256,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="61" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="61" spans="1:7" ht="25.5" customHeight="1">
       <c r="A61" s="3" t="s">
         <v>50</v>
       </c>
@@ -2244,7 +2279,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="62" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="62" spans="1:7" ht="25.5" customHeight="1">
       <c r="A62" s="3" t="s">
         <v>50</v>
       </c>
@@ -2267,7 +2302,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="63" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="63" spans="1:7" ht="25.5" customHeight="1">
       <c r="A63" s="3" t="s">
         <v>88</v>
       </c>
@@ -2290,7 +2325,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="64" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="64" spans="1:7" ht="25.5" customHeight="1">
       <c r="A64" s="3" t="s">
         <v>88</v>
       </c>
@@ -2313,7 +2348,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="65" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="65" spans="1:7" ht="25.5" customHeight="1">
       <c r="A65" s="3" t="s">
         <v>88</v>
       </c>
@@ -2336,7 +2371,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="66" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="66" spans="1:7" ht="25.5" customHeight="1">
       <c r="A66" s="3" t="s">
         <v>88</v>
       </c>
@@ -2359,7 +2394,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="67" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="67" spans="1:7" ht="25.5" customHeight="1">
       <c r="A67" s="3" t="s">
         <v>69</v>
       </c>
@@ -2382,7 +2417,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="68" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="68" spans="1:7" ht="25.5" customHeight="1">
       <c r="A68" s="3" t="s">
         <v>69</v>
       </c>
@@ -2405,7 +2440,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="69" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="69" spans="1:7" ht="25.5" customHeight="1">
       <c r="A69" s="3" t="s">
         <v>104</v>
       </c>
@@ -2428,7 +2463,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="70" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="70" spans="1:7" ht="25.5" customHeight="1">
       <c r="A70" s="3" t="s">
         <v>104</v>
       </c>
@@ -2451,7 +2486,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="71" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="71" spans="1:7" ht="25.5" customHeight="1">
       <c r="A71" s="3" t="s">
         <v>63</v>
       </c>
@@ -2474,7 +2509,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="72" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="72" spans="1:7" ht="25.5" customHeight="1">
       <c r="A72" s="3" t="s">
         <v>63</v>
       </c>
@@ -2497,7 +2532,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="73" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="73" spans="1:7" ht="25.5" customHeight="1">
       <c r="A73" s="3" t="s">
         <v>79</v>
       </c>
@@ -2520,7 +2555,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="74" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="74" spans="1:7" ht="25.5" customHeight="1">
       <c r="A74" s="3" t="s">
         <v>96</v>
       </c>
@@ -2543,7 +2578,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="75" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="75" spans="1:7" ht="25.5" customHeight="1">
       <c r="A75" s="3" t="s">
         <v>80</v>
       </c>
@@ -2566,7 +2601,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="76" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="76" spans="1:7" ht="25.5" customHeight="1">
       <c r="A76" s="3" t="s">
         <v>80</v>
       </c>
@@ -2589,7 +2624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="77" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="77" spans="1:7" ht="25.5" customHeight="1">
       <c r="A77" s="3" t="s">
         <v>14</v>
       </c>
@@ -2612,7 +2647,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="78" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="78" spans="1:7" ht="25.5" customHeight="1">
       <c r="A78" s="3" t="s">
         <v>14</v>
       </c>
@@ -2635,7 +2670,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="79" spans="1:7" ht="25.5" customHeight="1">
       <c r="A79" s="3" t="s">
         <v>14</v>
       </c>
@@ -2658,7 +2693,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="80" spans="1:7" ht="25.5" customHeight="1">
       <c r="A80" s="3" t="s">
         <v>14</v>
       </c>
@@ -2681,7 +2716,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="81" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="81" spans="1:7" ht="25.5" customHeight="1">
       <c r="A81" s="3" t="s">
         <v>14</v>
       </c>
@@ -2704,7 +2739,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="82" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="82" spans="1:7" ht="25.5" customHeight="1">
       <c r="A82" s="3" t="s">
         <v>14</v>
       </c>
@@ -2727,7 +2762,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="83" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="83" spans="1:7" ht="25.5" customHeight="1">
       <c r="A83" s="3" t="s">
         <v>14</v>
       </c>
@@ -2750,7 +2785,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="84" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="84" spans="1:7" ht="25.5" customHeight="1">
       <c r="A84" s="3" t="s">
         <v>14</v>
       </c>
@@ -2773,7 +2808,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="85" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="85" spans="1:7" ht="25.5" customHeight="1">
       <c r="A85" s="3" t="s">
         <v>14</v>
       </c>
@@ -2796,7 +2831,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="86" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="86" spans="1:7" ht="25.5" customHeight="1">
       <c r="A86" s="3" t="s">
         <v>14</v>
       </c>
@@ -2819,7 +2854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="87" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="87" spans="1:7" ht="25.5" customHeight="1">
       <c r="A87" s="3" t="s">
         <v>14</v>
       </c>
@@ -2842,7 +2877,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="88" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="88" spans="1:7" ht="25.5" customHeight="1">
       <c r="A88" s="3" t="s">
         <v>14</v>
       </c>
@@ -2865,7 +2900,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="89" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="89" spans="1:7" ht="25.5" customHeight="1">
       <c r="A89" s="3" t="s">
         <v>14</v>
       </c>
@@ -2888,7 +2923,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="90" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="90" spans="1:7" ht="25.5" customHeight="1">
       <c r="A90" s="3" t="s">
         <v>14</v>
       </c>
@@ -2911,7 +2946,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="91" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="91" spans="1:7" ht="25.5" customHeight="1">
       <c r="A91" s="3" t="s">
         <v>14</v>
       </c>
@@ -2934,7 +2969,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="92" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="92" spans="1:7" ht="25.5" customHeight="1">
       <c r="A92" s="3" t="s">
         <v>14</v>
       </c>
@@ -2957,7 +2992,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="93" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="93" spans="1:7" ht="25.5" customHeight="1">
       <c r="A93" s="3" t="s">
         <v>14</v>
       </c>
@@ -2980,7 +3015,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="94" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="94" spans="1:7" ht="25.5" customHeight="1">
       <c r="A94" s="3" t="s">
         <v>14</v>
       </c>
@@ -3003,7 +3038,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="95" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="95" spans="1:7" ht="25.5" customHeight="1">
       <c r="A95" s="3" t="s">
         <v>14</v>
       </c>
@@ -3026,7 +3061,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="96" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="96" spans="1:7" ht="25.5" customHeight="1">
       <c r="A96" s="3" t="s">
         <v>14</v>
       </c>
@@ -3049,7 +3084,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="97" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="97" spans="1:7" ht="25.5" customHeight="1">
       <c r="A97" s="3" t="s">
         <v>14</v>
       </c>
@@ -3072,7 +3107,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="98" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="98" spans="1:7" ht="25.5" customHeight="1">
       <c r="A98" s="3" t="s">
         <v>14</v>
       </c>
@@ -3095,7 +3130,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="99" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="99" spans="1:7" ht="25.5" customHeight="1">
       <c r="A99" s="3" t="s">
         <v>14</v>
       </c>
@@ -3118,7 +3153,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="100" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="100" spans="1:7" ht="25.5" customHeight="1">
       <c r="A100" s="3" t="s">
         <v>14</v>
       </c>
@@ -3141,7 +3176,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="101" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="101" spans="1:7" ht="25.5" customHeight="1">
       <c r="A101" s="3" t="s">
         <v>14</v>
       </c>
@@ -3164,7 +3199,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="102" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="102" spans="1:7" ht="25.5" customHeight="1">
       <c r="A102" s="3" t="s">
         <v>14</v>
       </c>
@@ -3187,7 +3222,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="103" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="103" spans="1:7" ht="25.5" customHeight="1">
       <c r="A103" s="3" t="s">
         <v>14</v>
       </c>
@@ -3210,7 +3245,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="104" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="104" spans="1:7" ht="25.5" customHeight="1">
       <c r="A104" s="3" t="s">
         <v>29</v>
       </c>
@@ -3233,7 +3268,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="105" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="105" spans="1:7" ht="25.5" customHeight="1">
       <c r="A105" s="3" t="s">
         <v>29</v>
       </c>
@@ -3256,7 +3291,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="106" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="106" spans="1:7" ht="25.5" customHeight="1">
       <c r="A106" s="3" t="s">
         <v>29</v>
       </c>
@@ -3279,7 +3314,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="107" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="107" spans="1:7" ht="25.5" customHeight="1">
       <c r="A107" s="3" t="s">
         <v>29</v>
       </c>
@@ -3302,7 +3337,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="108" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="108" spans="1:7" ht="25.5" customHeight="1">
       <c r="A108" s="3" t="s">
         <v>29</v>
       </c>
@@ -3325,7 +3360,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="109" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="109" spans="1:7" ht="25.5" customHeight="1">
       <c r="A109" s="3" t="s">
         <v>29</v>
       </c>
@@ -3348,7 +3383,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="110" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="110" spans="1:7" ht="25.5" customHeight="1">
       <c r="A110" s="3" t="s">
         <v>25</v>
       </c>
@@ -3371,7 +3406,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="111" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="111" spans="1:7" ht="25.5" customHeight="1">
       <c r="A111" s="3" t="s">
         <v>115</v>
       </c>
@@ -3394,7 +3429,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="112" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="112" spans="1:7" ht="25.5" customHeight="1">
       <c r="A112" s="3" t="s">
         <v>23</v>
       </c>
@@ -3417,7 +3452,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="113" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="113" spans="1:7" ht="25.5" customHeight="1">
       <c r="A113" s="3" t="s">
         <v>23</v>
       </c>
@@ -3440,7 +3475,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="114" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="114" spans="1:7" ht="25.5" customHeight="1">
       <c r="A114" s="3" t="s">
         <v>35</v>
       </c>
@@ -3463,7 +3498,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="115" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="115" spans="1:7" ht="25.5" customHeight="1">
       <c r="A115" s="3" t="s">
         <v>57</v>
       </c>
@@ -3486,7 +3521,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="116" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="116" spans="1:7" ht="25.5" customHeight="1">
       <c r="A116" s="3" t="s">
         <v>103</v>
       </c>
@@ -3509,7 +3544,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="117" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="117" spans="1:7" ht="25.5" customHeight="1">
       <c r="A117" s="3" t="s">
         <v>103</v>
       </c>
@@ -3532,7 +3567,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="118" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="118" spans="1:7" ht="25.5" customHeight="1">
       <c r="A118" s="3" t="s">
         <v>47</v>
       </c>
@@ -3555,7 +3590,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="119" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="119" spans="1:7" ht="25.5" customHeight="1">
       <c r="A119" s="3" t="s">
         <v>47</v>
       </c>
@@ -3578,7 +3613,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="120" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="120" spans="1:7" ht="25.5" customHeight="1">
       <c r="A120" s="3" t="s">
         <v>120</v>
       </c>
@@ -3601,7 +3636,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="121" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="121" spans="1:7" ht="25.5" customHeight="1">
       <c r="A121" s="3" t="s">
         <v>43</v>
       </c>
@@ -3624,7 +3659,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="122" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="122" spans="1:7" ht="25.5" customHeight="1">
       <c r="A122" s="3" t="s">
         <v>43</v>
       </c>
@@ -3647,7 +3682,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="123" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="123" spans="1:7" ht="25.5" customHeight="1">
       <c r="A123" s="3" t="s">
         <v>43</v>
       </c>
@@ -3670,7 +3705,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="124" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="124" spans="1:7" ht="25.5" customHeight="1">
       <c r="A124" s="3" t="s">
         <v>49</v>
       </c>
@@ -3693,7 +3728,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="125" spans="1:7" ht="54" x14ac:dyDescent="0.15">
+    <row r="125" spans="1:7" ht="60">
       <c r="A125" s="3" t="s">
         <v>35</v>
       </c>
@@ -3716,7 +3751,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="126" spans="1:7" ht="25.5" customHeight="1" x14ac:dyDescent="0.15">
+    <row r="126" spans="1:7" ht="25.5" customHeight="1">
       <c r="A126" s="3" t="s">
         <v>114</v>
       </c>
